--- a/Mathematica/datafiles/N3mr.xlsx
+++ b/Mathematica/datafiles/N3mr.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shyam\SkyDrive\Documents\Courses\ModelingProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shyam\Documents\Courses\CHE1125Project\IntegratedModels\Mathematica\datafiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="N2mu" sheetId="7" r:id="rId3"/>
     <sheet name="N2mr" sheetId="10" r:id="rId4"/>
     <sheet name="N3mu" sheetId="8" r:id="rId5"/>
-    <sheet name="N3mr" sheetId="9" r:id="rId6"/>
+    <sheet name="N3mOpen" sheetId="9" r:id="rId6"/>
     <sheet name="N3" sheetId="5" r:id="rId7"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId8"/>
   </sheets>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="232">
   <si>
     <t>Reaction</t>
   </si>
@@ -714,7 +714,19 @@
     <t>C[c], D[c], Pr[c], E[c]</t>
   </si>
   <si>
-    <t>M[c] + N[c] ---&gt;A[c] + K[c]</t>
+    <t>Positive Effectors FWD</t>
+  </si>
+  <si>
+    <t>Negative Effectors FWD</t>
+  </si>
+  <si>
+    <t>Positive Effectors REV</t>
+  </si>
+  <si>
+    <t>Negative Effectors REV</t>
+  </si>
+  <si>
+    <t>M[c] + N[c] &lt;==&gt;A[c] + K[c]</t>
   </si>
 </sst>
 </file>
@@ -2024,10 +2036,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2037,23 +2049,29 @@
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>227</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+      <c r="D1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>186</v>
       </c>
@@ -2061,7 +2079,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>188</v>
       </c>
@@ -2069,7 +2087,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>191</v>
       </c>
@@ -2077,7 +2095,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>192</v>
       </c>
@@ -2085,7 +2103,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>190</v>
       </c>
@@ -2093,7 +2111,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>193</v>
       </c>
@@ -2101,18 +2119,18 @@
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B9" t="s">
         <v>196</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>197</v>
       </c>
@@ -2120,7 +2138,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>198</v>
       </c>
@@ -2128,7 +2146,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>202</v>
       </c>
@@ -2136,7 +2154,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>203</v>
       </c>
@@ -2144,7 +2162,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>205</v>
       </c>
@@ -2152,7 +2170,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>206</v>
       </c>
@@ -2160,7 +2178,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>201</v>
       </c>
